--- a/biology/Médecine/1159_en_santé_et_médecine/1159_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1159_en_santé_et_médecine/1159_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1159_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1159_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1159 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1159_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1159_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Probablement au début de 1159 : fondation, par le roi Henri II, de l'hospice ou prieuré de Hornchurch, dans le comté d'Essex, seule dépendance en Angleterre de l'hospice savoyard Saint-Nicolas et Saint-Bernard de Montjoux [1].
-1156-1159 : fondation à Prague par le roi Vladislav Ier, d'un hôpital confié aux frères de Saint-Jean de Jérusalem, premier établissement géré par leur ordre en Bohême[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Probablement au début de 1159 : fondation, par le roi Henri II, de l'hospice ou prieuré de Hornchurch, dans le comté d'Essex, seule dépendance en Angleterre de l'hospice savoyard Saint-Nicolas et Saint-Bernard de Montjoux .
+1156-1159 : fondation à Prague par le roi Vladislav Ier, d'un hôpital confié aux frères de Saint-Jean de Jérusalem, premier établissement géré par leur ordre en Bohême.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1159_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1159_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Guillaume, médecin à la cour de Pierre Ier, évêque de Marseille[3].
-Fl. Pierre, médecin à Montpellier, sans doute le même qui est témoin d'un acte de Raimbaut d'Orange en 1161[4].
-Fl. Simon, médecin, témoin à Saint-Omer d'un donation de Philippe d'Alsace, futur comte de Flandre, au monastère de Saint-Bertin[4].
-1155-1159 : fl. Bremond, l'un des « deux premiers médecins narbonnais connus [avec Raoul (1171-1219)], l'un et l'autre parmi les plus proches d'Ermengarde, vicomtesse de Narbonne[5] ».
-Vers 1159-1160 : fl. Fortius, qui enseignerait la médecine à Montpellier[3].
-1159-1166 : fl. Anselme, médecin qui figure dans des chartes concernant l'abbaye de Bonnevaux, peut-être le même que le « maître Anselme » qui est cité en 1197 dans un acte de Lambert d'Allevard, évêque de Maurienne[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Guillaume, médecin à la cour de Pierre Ier, évêque de Marseille.
+Fl. Pierre, médecin à Montpellier, sans doute le même qui est témoin d'un acte de Raimbaut d'Orange en 1161.
+Fl. Simon, médecin, témoin à Saint-Omer d'un donation de Philippe d'Alsace, futur comte de Flandre, au monastère de Saint-Bertin.
+1155-1159 : fl. Bremond, l'un des « deux premiers médecins narbonnais connus [avec Raoul (1171-1219)], l'un et l'autre parmi les plus proches d'Ermengarde, vicomtesse de Narbonne ».
+Vers 1159-1160 : fl. Fortius, qui enseignerait la médecine à Montpellier.
+1159-1166 : fl. Anselme, médecin qui figure dans des chartes concernant l'abbaye de Bonnevaux, peut-être le même que le « maître Anselme » qui est cité en 1197 dans un acte de Lambert d'Allevard, évêque de Maurienne.</t>
         </is>
       </c>
     </row>
